--- a/Resources/CAL_FireStats/2008-wildfire-activity-stats.xlsx
+++ b/Resources/CAL_FireStats/2008-wildfire-activity-stats.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/16c6a743d20dd4b9/Documents/^M PERSONLIG/^M MAAL/DABC/Working/Projects/Project3/Fire-Analysis/Resources/UniformXLSXs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/16c6a743d20dd4b9/Documents/^M PERSONLIG/^M MAAL/DABC/Working/Projects/Project3/Fire-Analysis/Resources/CAL_FireStats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="179" documentId="11_322FEBFA675BCE483F4C7FB221F65502CCEF4F36" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BDFA782-13A3-4D94-A21A-367BB26B2595}"/>
+  <xr:revisionPtr revIDLastSave="261" documentId="11_322FEBFA675BCE483F4C7FB221F65502CCEF4F36" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{567DAC55-A979-47CC-8531-33839FF05AAF}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="27255" windowHeight="14775" firstSheet="38" activeTab="44" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1545" yWindow="825" windowWidth="27255" windowHeight="14760" firstSheet="43" activeTab="46" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_page_7" sheetId="1" r:id="rId1"/>
@@ -57,12 +57,12 @@
     <sheet name="table_page_56" sheetId="42" r:id="rId42"/>
     <sheet name="table_page_57" sheetId="43" r:id="rId43"/>
     <sheet name="table_page_58" sheetId="44" r:id="rId44"/>
-    <sheet name="table_page_60" sheetId="45" r:id="rId45"/>
-    <sheet name="table_page_61" sheetId="46" r:id="rId46"/>
-    <sheet name="table_page_62" sheetId="47" r:id="rId47"/>
-    <sheet name="table_page_63" sheetId="48" r:id="rId48"/>
-    <sheet name="table_page_64" sheetId="49" r:id="rId49"/>
-    <sheet name="table_page_65" sheetId="50" r:id="rId50"/>
+    <sheet name="table_page_63" sheetId="48" r:id="rId45"/>
+    <sheet name="table_page_64" sheetId="49" r:id="rId46"/>
+    <sheet name="table_page_65" sheetId="50" r:id="rId47"/>
+    <sheet name="table_page_60" sheetId="45" r:id="rId48"/>
+    <sheet name="table_page_61" sheetId="46" r:id="rId49"/>
+    <sheet name="table_page_62" sheetId="47" r:id="rId50"/>
     <sheet name="table_page_66" sheetId="51" r:id="rId51"/>
     <sheet name="table_page_67" sheetId="52" r:id="rId52"/>
     <sheet name="table_page_69" sheetId="53" r:id="rId53"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7658" uniqueCount="2781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7668" uniqueCount="2781">
   <si>
     <t>COUNTY</t>
   </si>
@@ -12526,7 +12526,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -12535,6 +12535,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -29265,11 +29268,759 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
-  <dimension ref="A1:N27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2042</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2043</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2044</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2045</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2046</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2044</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2047</v>
+      </c>
+      <c r="I4" t="s">
+        <v>2048</v>
+      </c>
+      <c r="J4" t="s">
+        <v>2049</v>
+      </c>
+      <c r="K4" t="s">
+        <v>2044</v>
+      </c>
+      <c r="L4" t="s">
+        <v>2044</v>
+      </c>
+      <c r="M4" t="s">
+        <v>2050</v>
+      </c>
+      <c r="N4" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2052</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2053</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2021</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2054</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2055</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2021</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2056</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1995</v>
+      </c>
+      <c r="J5" t="s">
+        <v>2057</v>
+      </c>
+      <c r="K5" t="s">
+        <v>2021</v>
+      </c>
+      <c r="L5" t="s">
+        <v>2021</v>
+      </c>
+      <c r="M5" t="s">
+        <v>2058</v>
+      </c>
+      <c r="N5" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3">
+        <v>24410210</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2061</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2062</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2063</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2064</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2065</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2066</v>
+      </c>
+      <c r="I6" t="s">
+        <v>2062</v>
+      </c>
+      <c r="J6" t="s">
+        <v>2062</v>
+      </c>
+      <c r="K6" t="s">
+        <v>2062</v>
+      </c>
+      <c r="L6" t="s">
+        <v>2062</v>
+      </c>
+      <c r="M6" t="s">
+        <v>2067</v>
+      </c>
+      <c r="N6" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2070</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2021</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2071</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2072</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2073</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2074</v>
+      </c>
+      <c r="I8" t="s">
+        <v>2021</v>
+      </c>
+      <c r="J8" t="s">
+        <v>2021</v>
+      </c>
+      <c r="K8" t="s">
+        <v>2021</v>
+      </c>
+      <c r="L8" t="s">
+        <v>2021</v>
+      </c>
+      <c r="M8" t="s">
+        <v>2075</v>
+      </c>
+      <c r="N8" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="3">
+        <v>55000</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2078</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2078</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2078</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2079</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2078</v>
+      </c>
+      <c r="H9" t="s">
+        <v>2080</v>
+      </c>
+      <c r="I9" t="s">
+        <v>2078</v>
+      </c>
+      <c r="J9" t="s">
+        <v>2078</v>
+      </c>
+      <c r="K9" t="s">
+        <v>2081</v>
+      </c>
+      <c r="L9" t="s">
+        <v>2078</v>
+      </c>
+      <c r="M9" t="s">
+        <v>2082</v>
+      </c>
+      <c r="N9" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="3">
+        <v>75600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>599</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2084</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2021</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2021</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2085</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2021</v>
+      </c>
+      <c r="H12" t="s">
+        <v>2086</v>
+      </c>
+      <c r="I12" t="s">
+        <v>2021</v>
+      </c>
+      <c r="J12" t="s">
+        <v>2021</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1997</v>
+      </c>
+      <c r="L12" t="s">
+        <v>2021</v>
+      </c>
+      <c r="M12" t="s">
+        <v>2087</v>
+      </c>
+      <c r="N12" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2893654</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2078</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2078</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2089</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2090</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2091</v>
+      </c>
+      <c r="H13" t="s">
+        <v>2092</v>
+      </c>
+      <c r="I13" t="s">
+        <v>2078</v>
+      </c>
+      <c r="J13" t="s">
+        <v>2078</v>
+      </c>
+      <c r="K13" t="s">
+        <v>2078</v>
+      </c>
+      <c r="L13" t="s">
+        <v>2078</v>
+      </c>
+      <c r="M13" t="s">
+        <v>2093</v>
+      </c>
+      <c r="N13" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="3">
+        <v>265118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="3">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>624</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2094</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2021</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2095</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2096</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2097</v>
+      </c>
+      <c r="H16" t="s">
+        <v>2098</v>
+      </c>
+      <c r="I16" t="s">
+        <v>2021</v>
+      </c>
+      <c r="J16" t="s">
+        <v>2021</v>
+      </c>
+      <c r="K16" t="s">
+        <v>2021</v>
+      </c>
+      <c r="L16" t="s">
+        <v>2021</v>
+      </c>
+      <c r="M16" t="s">
+        <v>2099</v>
+      </c>
+      <c r="N16" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2100</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2021</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2101</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2102</v>
+      </c>
+      <c r="G17" t="s">
+        <v>2103</v>
+      </c>
+      <c r="H17" t="s">
+        <v>2104</v>
+      </c>
+      <c r="I17" t="s">
+        <v>2021</v>
+      </c>
+      <c r="J17" t="s">
+        <v>2021</v>
+      </c>
+      <c r="K17" t="s">
+        <v>2021</v>
+      </c>
+      <c r="L17" t="s">
+        <v>2021</v>
+      </c>
+      <c r="M17" t="s">
+        <v>2105</v>
+      </c>
+      <c r="N17" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2100</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2021</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2101</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2102</v>
+      </c>
+      <c r="G18" t="s">
+        <v>2103</v>
+      </c>
+      <c r="H18" t="s">
+        <v>2104</v>
+      </c>
+      <c r="I18" t="s">
+        <v>2021</v>
+      </c>
+      <c r="J18" t="s">
+        <v>2021</v>
+      </c>
+      <c r="K18" t="s">
+        <v>2021</v>
+      </c>
+      <c r="L18" t="s">
+        <v>2021</v>
+      </c>
+      <c r="M18" t="s">
+        <v>2105</v>
+      </c>
+      <c r="N18" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="3">
+        <v>298250</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2107</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2108</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2109</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2110</v>
+      </c>
+      <c r="G19" t="s">
+        <v>2078</v>
+      </c>
+      <c r="H19" t="s">
+        <v>2111</v>
+      </c>
+      <c r="I19" t="s">
+        <v>2078</v>
+      </c>
+      <c r="J19" t="s">
+        <v>2112</v>
+      </c>
+      <c r="K19" t="s">
+        <v>2078</v>
+      </c>
+      <c r="L19" t="s">
+        <v>2078</v>
+      </c>
+      <c r="M19" t="s">
+        <v>2113</v>
+      </c>
+      <c r="N19" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2190700</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>244</v>
+      </c>
+      <c r="B21" s="3">
+        <v>227800</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>702</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2116</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2102</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2117</v>
+      </c>
+      <c r="F22" t="s">
+        <v>2118</v>
+      </c>
+      <c r="G22" t="s">
+        <v>2021</v>
+      </c>
+      <c r="H22" t="s">
+        <v>2119</v>
+      </c>
+      <c r="I22" t="s">
+        <v>2021</v>
+      </c>
+      <c r="J22" t="s">
+        <v>2120</v>
+      </c>
+      <c r="K22" t="s">
+        <v>2021</v>
+      </c>
+      <c r="L22" t="s">
+        <v>2021</v>
+      </c>
+      <c r="M22" t="s">
+        <v>2121</v>
+      </c>
+      <c r="N22" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>180</v>
+      </c>
+      <c r="B23" s="3">
+        <v>4852</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2062</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2124</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2125</v>
+      </c>
+      <c r="F23" t="s">
+        <v>2126</v>
+      </c>
+      <c r="G23" t="s">
+        <v>2062</v>
+      </c>
+      <c r="H23" t="s">
+        <v>2127</v>
+      </c>
+      <c r="I23" t="s">
+        <v>2062</v>
+      </c>
+      <c r="J23" t="s">
+        <v>2128</v>
+      </c>
+      <c r="K23" t="s">
+        <v>2062</v>
+      </c>
+      <c r="L23" t="s">
+        <v>2129</v>
+      </c>
+      <c r="M23" t="s">
+        <v>2130</v>
+      </c>
+      <c r="N23" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>192</v>
+      </c>
+      <c r="B24" s="3">
+        <v>50041520</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>513</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2132</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2133</v>
+      </c>
+      <c r="F25" t="s">
+        <v>2134</v>
+      </c>
+      <c r="G25" t="s">
+        <v>2021</v>
+      </c>
+      <c r="H25" t="s">
+        <v>2135</v>
+      </c>
+      <c r="I25" t="s">
+        <v>2021</v>
+      </c>
+      <c r="J25" t="s">
+        <v>2136</v>
+      </c>
+      <c r="K25" t="s">
+        <v>2021</v>
+      </c>
+      <c r="L25" t="s">
+        <v>2137</v>
+      </c>
+      <c r="M25" t="s">
+        <v>2138</v>
+      </c>
+      <c r="N25" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
+  <dimension ref="A1:N22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29319,386 +30070,554 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1976</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1977</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1978</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1979</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1980</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1981</v>
-      </c>
-      <c r="I2" t="s">
-        <v>1982</v>
-      </c>
-      <c r="J2" t="s">
-        <v>1983</v>
-      </c>
-      <c r="K2" t="s">
-        <v>1984</v>
-      </c>
-      <c r="L2" t="s">
-        <v>1985</v>
-      </c>
-      <c r="M2" t="s">
-        <v>1986</v>
-      </c>
-      <c r="N2" t="s">
-        <v>1987</v>
-      </c>
-    </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1203331</v>
+        <v>1046</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2140</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2141</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2142</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2143</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2144</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2145</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2146</v>
+      </c>
+      <c r="I3" t="s">
+        <v>2142</v>
+      </c>
+      <c r="J3" t="s">
+        <v>2142</v>
+      </c>
+      <c r="K3" t="s">
+        <v>2142</v>
+      </c>
+      <c r="L3" t="s">
+        <v>2142</v>
+      </c>
+      <c r="M3" t="s">
+        <v>2147</v>
+      </c>
+      <c r="N3" t="s">
+        <v>2148</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="3">
-        <v>24410210</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>599</v>
-      </c>
-      <c r="B5" s="3">
-        <v>130600</v>
+        <v>190</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2021</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2151</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2152</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2153</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2154</v>
+      </c>
+      <c r="I5" t="s">
+        <v>2021</v>
+      </c>
+      <c r="J5" t="s">
+        <v>2021</v>
+      </c>
+      <c r="K5" t="s">
+        <v>2021</v>
+      </c>
+      <c r="L5" t="s">
+        <v>2021</v>
+      </c>
+      <c r="M5" t="s">
+        <v>2155</v>
+      </c>
+      <c r="N5" t="s">
+        <v>2156</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>624</v>
-      </c>
-      <c r="B6" s="3">
-        <v>3159322</v>
+        <v>2778</v>
+      </c>
+      <c r="B6" s="4">
+        <v>177801</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2062</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2062</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2158</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2159</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2160</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2161</v>
+      </c>
+      <c r="I6" t="s">
+        <v>2062</v>
+      </c>
+      <c r="J6" t="s">
+        <v>2062</v>
+      </c>
+      <c r="K6" t="s">
+        <v>2062</v>
+      </c>
+      <c r="L6" t="s">
+        <v>2062</v>
+      </c>
+      <c r="M6" t="s">
+        <v>2162</v>
+      </c>
+      <c r="N6" t="s">
+        <v>2163</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>194</v>
       </c>
       <c r="B7" s="3">
-        <v>621450</v>
+        <v>10005601</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>702</v>
-      </c>
-      <c r="B8" s="3">
-        <v>2716750</v>
+        <v>550</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2164</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2021</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2165</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2166</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2167</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2168</v>
+      </c>
+      <c r="I8" t="s">
+        <v>2021</v>
+      </c>
+      <c r="J8" t="s">
+        <v>2021</v>
+      </c>
+      <c r="K8" t="s">
+        <v>2021</v>
+      </c>
+      <c r="L8" t="s">
+        <v>2021</v>
+      </c>
+      <c r="M8" t="s">
+        <v>2169</v>
+      </c>
+      <c r="N8" t="s">
+        <v>2170</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>513</v>
-      </c>
-      <c r="B9" s="3">
-        <v>5446372</v>
+        <v>203</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2171</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2021</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2172</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2021</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2102</v>
+      </c>
+      <c r="H9" t="s">
+        <v>2173</v>
+      </c>
+      <c r="I9" t="s">
+        <v>2021</v>
+      </c>
+      <c r="J9" t="s">
+        <v>2021</v>
+      </c>
+      <c r="K9" t="s">
+        <v>2021</v>
+      </c>
+      <c r="L9" t="s">
+        <v>2170</v>
+      </c>
+      <c r="M9" t="s">
+        <v>2174</v>
+      </c>
+      <c r="N9" t="s">
+        <v>2021</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>190</v>
-      </c>
-      <c r="B10" s="3">
-        <v>203201</v>
+        <v>203</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2171</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2021</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2172</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2021</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2102</v>
+      </c>
+      <c r="H10" t="s">
+        <v>2173</v>
+      </c>
+      <c r="I10" t="s">
+        <v>2021</v>
+      </c>
+      <c r="J10" t="s">
+        <v>2021</v>
+      </c>
+      <c r="K10" t="s">
+        <v>2021</v>
+      </c>
+      <c r="L10" t="s">
+        <v>2170</v>
+      </c>
+      <c r="M10" t="s">
+        <v>2174</v>
+      </c>
+      <c r="N10" t="s">
+        <v>2021</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>550</v>
+        <v>27</v>
       </c>
       <c r="B11" s="3">
-        <v>10183402</v>
+        <v>100</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2176</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2176</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2177</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2178</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2176</v>
+      </c>
+      <c r="H11" t="s">
+        <v>2179</v>
+      </c>
+      <c r="I11" t="s">
+        <v>2176</v>
+      </c>
+      <c r="J11" t="s">
+        <v>2176</v>
+      </c>
+      <c r="K11" t="s">
+        <v>2176</v>
+      </c>
+      <c r="L11" t="s">
+        <v>2180</v>
+      </c>
+      <c r="M11" t="s">
+        <v>2181</v>
+      </c>
+      <c r="N11" t="s">
+        <v>2182</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="B12" s="3">
-        <v>16200</v>
+        <v>280504</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>493</v>
+        <v>129</v>
       </c>
       <c r="B13" s="3">
-        <v>1919595</v>
+        <v>1457098</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>464</v>
+        <v>209</v>
       </c>
       <c r="B14" s="3">
-        <v>1139000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>730</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1988</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1989</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1990</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1991</v>
-      </c>
-      <c r="F15" t="s">
-        <v>1992</v>
-      </c>
-      <c r="G15" t="s">
-        <v>1993</v>
-      </c>
-      <c r="H15" t="s">
-        <v>1994</v>
-      </c>
-      <c r="I15" t="s">
-        <v>1995</v>
-      </c>
-      <c r="J15" t="s">
-        <v>1996</v>
-      </c>
-      <c r="K15" t="s">
-        <v>1997</v>
-      </c>
-      <c r="L15" t="s">
-        <v>1998</v>
-      </c>
-      <c r="M15" t="s">
-        <v>1999</v>
-      </c>
-      <c r="N15" t="s">
-        <v>2000</v>
+        <v>211</v>
+      </c>
+      <c r="B15" s="3">
+        <v>177393</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C16" t="s">
-        <v>2001</v>
-      </c>
-      <c r="D16" t="s">
-        <v>2002</v>
-      </c>
-      <c r="E16" t="s">
-        <v>2003</v>
-      </c>
-      <c r="F16" t="s">
-        <v>2004</v>
-      </c>
-      <c r="G16" t="s">
-        <v>2005</v>
-      </c>
-      <c r="H16" t="s">
-        <v>2006</v>
-      </c>
-      <c r="I16" t="s">
-        <v>2007</v>
-      </c>
-      <c r="J16" t="s">
-        <v>2008</v>
-      </c>
-      <c r="K16" t="s">
-        <v>2009</v>
-      </c>
-      <c r="L16" t="s">
-        <v>2009</v>
-      </c>
-      <c r="M16" t="s">
-        <v>2010</v>
-      </c>
-      <c r="N16" t="s">
-        <v>2011</v>
+        <v>242</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1500</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>471</v>
-      </c>
-      <c r="B17" s="3">
-        <v>242504</v>
+        <v>493</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2183</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2021</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2184</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2185</v>
+      </c>
+      <c r="G17" t="s">
+        <v>2021</v>
+      </c>
+      <c r="H17" t="s">
+        <v>2186</v>
+      </c>
+      <c r="I17" t="s">
+        <v>2021</v>
+      </c>
+      <c r="J17" t="s">
+        <v>2021</v>
+      </c>
+      <c r="K17" t="s">
+        <v>2021</v>
+      </c>
+      <c r="L17" t="s">
+        <v>2187</v>
+      </c>
+      <c r="M17" t="s">
+        <v>2188</v>
+      </c>
+      <c r="N17" t="s">
+        <v>2165</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1275</v>
+        <v>50</v>
       </c>
       <c r="B18" s="3">
-        <v>1803974</v>
+        <v>10000</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2062</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2062</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2062</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2190</v>
+      </c>
+      <c r="G18" t="s">
+        <v>2062</v>
+      </c>
+      <c r="H18" t="s">
+        <v>2191</v>
+      </c>
+      <c r="I18" t="s">
+        <v>2062</v>
+      </c>
+      <c r="J18" t="s">
+        <v>2062</v>
+      </c>
+      <c r="K18" t="s">
+        <v>2062</v>
+      </c>
+      <c r="L18" t="s">
+        <v>2062</v>
+      </c>
+      <c r="M18" t="s">
+        <v>2158</v>
+      </c>
+      <c r="N18" t="s">
+        <v>2062</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
       <c r="B19" s="3">
-        <v>97695477</v>
+        <v>1129000</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>527</v>
-      </c>
-      <c r="B20" s="3">
-        <v>84940</v>
+        <v>464</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2192</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2021</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2021</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2193</v>
+      </c>
+      <c r="G20" t="s">
+        <v>2021</v>
+      </c>
+      <c r="H20" t="s">
+        <v>2194</v>
+      </c>
+      <c r="I20" t="s">
+        <v>2021</v>
+      </c>
+      <c r="J20" t="s">
+        <v>2021</v>
+      </c>
+      <c r="K20" t="s">
+        <v>2021</v>
+      </c>
+      <c r="L20" t="s">
+        <v>2021</v>
+      </c>
+      <c r="M20" t="s">
+        <v>2165</v>
+      </c>
+      <c r="N20" t="s">
+        <v>2021</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>161</v>
-      </c>
-      <c r="B21" s="3">
-        <v>69601</v>
+        <v>730</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2196</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1991</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1992</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1993</v>
+      </c>
+      <c r="H21" t="s">
+        <v>2197</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1995</v>
+      </c>
+      <c r="J21" t="s">
+        <v>1996</v>
+      </c>
+      <c r="K21" t="s">
+        <v>1997</v>
+      </c>
+      <c r="L21" t="s">
+        <v>1998</v>
+      </c>
+      <c r="M21" t="s">
+        <v>1999</v>
+      </c>
+      <c r="N21" t="s">
+        <v>2000</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>166</v>
-      </c>
-      <c r="B22" s="3">
-        <v>71302</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>174</v>
-      </c>
-      <c r="B23" s="3">
-        <v>392260</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>224</v>
-      </c>
-      <c r="B24" s="3">
-        <v>93916</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>501</v>
-      </c>
-      <c r="B25" s="3">
-        <v>778218</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>730</v>
-      </c>
-      <c r="B26" t="s">
-        <v>2012</v>
-      </c>
-      <c r="C26" t="s">
-        <v>2013</v>
-      </c>
-      <c r="D26" t="s">
-        <v>2014</v>
-      </c>
-      <c r="E26" t="s">
-        <v>2015</v>
-      </c>
-      <c r="F26" t="s">
-        <v>2016</v>
-      </c>
-      <c r="G26" t="s">
-        <v>2017</v>
-      </c>
-      <c r="H26" t="s">
-        <v>2018</v>
-      </c>
-      <c r="I26" t="s">
-        <v>2019</v>
-      </c>
-      <c r="J26" t="s">
-        <v>2020</v>
-      </c>
-      <c r="K26" t="s">
-        <v>2021</v>
-      </c>
-      <c r="L26" t="s">
-        <v>2021</v>
-      </c>
-      <c r="M26" t="s">
-        <v>2022</v>
-      </c>
-      <c r="N26" t="s">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B27" t="s">
-        <v>2024</v>
-      </c>
-      <c r="C27" t="s">
-        <v>2025</v>
-      </c>
-      <c r="D27" t="s">
-        <v>2026</v>
-      </c>
-      <c r="E27" t="s">
-        <v>2027</v>
-      </c>
-      <c r="F27" t="s">
-        <v>2028</v>
-      </c>
-      <c r="G27" t="s">
-        <v>2029</v>
-      </c>
-      <c r="H27" t="s">
-        <v>2030</v>
-      </c>
-      <c r="I27" t="s">
-        <v>2031</v>
-      </c>
-      <c r="J27" t="s">
-        <v>2032</v>
-      </c>
-      <c r="K27" t="s">
-        <v>1997</v>
-      </c>
-      <c r="L27" t="s">
-        <v>1998</v>
-      </c>
-      <c r="M27" t="s">
-        <v>2033</v>
-      </c>
-      <c r="N27" t="s">
-        <v>2034</v>
+        <v>2198</v>
       </c>
     </row>
   </sheetData>
@@ -29706,12 +30625,1466 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
+  <dimension ref="A1:N32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="3">
+        <v>237504</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2200</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2062</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2201</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2202</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2062</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2203</v>
+      </c>
+      <c r="I4" t="s">
+        <v>2204</v>
+      </c>
+      <c r="J4" t="s">
+        <v>2062</v>
+      </c>
+      <c r="K4" t="s">
+        <v>2062</v>
+      </c>
+      <c r="L4" t="s">
+        <v>2062</v>
+      </c>
+      <c r="M4" t="s">
+        <v>2205</v>
+      </c>
+      <c r="N4" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>471</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2206</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2170</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2021</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2207</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2208</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2021</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2209</v>
+      </c>
+      <c r="I6" t="s">
+        <v>2210</v>
+      </c>
+      <c r="J6" t="s">
+        <v>2021</v>
+      </c>
+      <c r="K6" t="s">
+        <v>2021</v>
+      </c>
+      <c r="L6" t="s">
+        <v>2021</v>
+      </c>
+      <c r="M6" t="s">
+        <v>2211</v>
+      </c>
+      <c r="N6" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="3">
+        <v>274050</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2213</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2078</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2214</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2215</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2216</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2217</v>
+      </c>
+      <c r="I7" t="s">
+        <v>2078</v>
+      </c>
+      <c r="J7" t="s">
+        <v>2218</v>
+      </c>
+      <c r="K7" t="s">
+        <v>2078</v>
+      </c>
+      <c r="L7" t="s">
+        <v>2078</v>
+      </c>
+      <c r="M7" t="s">
+        <v>2219</v>
+      </c>
+      <c r="N7" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1447924</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="3">
+        <v>82000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2220</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2221</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2021</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2222</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2223</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2224</v>
+      </c>
+      <c r="H10" t="s">
+        <v>2225</v>
+      </c>
+      <c r="I10" t="s">
+        <v>2021</v>
+      </c>
+      <c r="J10" t="s">
+        <v>2020</v>
+      </c>
+      <c r="K10" t="s">
+        <v>2021</v>
+      </c>
+      <c r="L10" t="s">
+        <v>2021</v>
+      </c>
+      <c r="M10" t="s">
+        <v>2226</v>
+      </c>
+      <c r="N10" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2227</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2021</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2228</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2229</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2021</v>
+      </c>
+      <c r="H11" t="s">
+        <v>2165</v>
+      </c>
+      <c r="I11" t="s">
+        <v>2021</v>
+      </c>
+      <c r="J11" t="s">
+        <v>2021</v>
+      </c>
+      <c r="K11" t="s">
+        <v>2021</v>
+      </c>
+      <c r="L11" t="s">
+        <v>2021</v>
+      </c>
+      <c r="M11" t="s">
+        <v>2230</v>
+      </c>
+      <c r="N11" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2227</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2021</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2228</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2229</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2021</v>
+      </c>
+      <c r="H12" t="s">
+        <v>2165</v>
+      </c>
+      <c r="I12" t="s">
+        <v>2021</v>
+      </c>
+      <c r="J12" t="s">
+        <v>2021</v>
+      </c>
+      <c r="K12" t="s">
+        <v>2021</v>
+      </c>
+      <c r="L12" t="s">
+        <v>2021</v>
+      </c>
+      <c r="M12" t="s">
+        <v>2230</v>
+      </c>
+      <c r="N12" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="3">
+        <v>61840</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2232</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2062</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2233</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2234</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2062</v>
+      </c>
+      <c r="H13" t="s">
+        <v>2235</v>
+      </c>
+      <c r="I13" t="s">
+        <v>2062</v>
+      </c>
+      <c r="J13" t="s">
+        <v>2062</v>
+      </c>
+      <c r="K13" t="s">
+        <v>2062</v>
+      </c>
+      <c r="L13" t="s">
+        <v>2062</v>
+      </c>
+      <c r="M13" t="s">
+        <v>2062</v>
+      </c>
+      <c r="N13" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" s="3">
+        <v>23100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>527</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2172</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2021</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2237</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2238</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2021</v>
+      </c>
+      <c r="H15" t="s">
+        <v>2239</v>
+      </c>
+      <c r="I15" t="s">
+        <v>2021</v>
+      </c>
+      <c r="J15" t="s">
+        <v>2021</v>
+      </c>
+      <c r="K15" t="s">
+        <v>2021</v>
+      </c>
+      <c r="L15" t="s">
+        <v>2021</v>
+      </c>
+      <c r="M15" t="s">
+        <v>2021</v>
+      </c>
+      <c r="N15" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2062</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2062</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2062</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2062</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2062</v>
+      </c>
+      <c r="H16" t="s">
+        <v>2241</v>
+      </c>
+      <c r="I16" t="s">
+        <v>2062</v>
+      </c>
+      <c r="J16" t="s">
+        <v>2062</v>
+      </c>
+      <c r="K16" t="s">
+        <v>2062</v>
+      </c>
+      <c r="L16" t="s">
+        <v>2062</v>
+      </c>
+      <c r="M16" t="s">
+        <v>2242</v>
+      </c>
+      <c r="N16" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" s="3">
+        <v>69601</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2244</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2021</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2021</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2021</v>
+      </c>
+      <c r="G18" t="s">
+        <v>2021</v>
+      </c>
+      <c r="H18" t="s">
+        <v>2245</v>
+      </c>
+      <c r="I18" t="s">
+        <v>2021</v>
+      </c>
+      <c r="J18" t="s">
+        <v>2021</v>
+      </c>
+      <c r="K18" t="s">
+        <v>2021</v>
+      </c>
+      <c r="L18" t="s">
+        <v>2021</v>
+      </c>
+      <c r="M18" t="s">
+        <v>2073</v>
+      </c>
+      <c r="N18" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>166</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2247</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2021</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2021</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2248</v>
+      </c>
+      <c r="G19" t="s">
+        <v>2021</v>
+      </c>
+      <c r="H19" t="s">
+        <v>2249</v>
+      </c>
+      <c r="I19" t="s">
+        <v>2021</v>
+      </c>
+      <c r="J19" t="s">
+        <v>2021</v>
+      </c>
+      <c r="K19" t="s">
+        <v>2021</v>
+      </c>
+      <c r="L19" t="s">
+        <v>2021</v>
+      </c>
+      <c r="M19" t="s">
+        <v>2250</v>
+      </c>
+      <c r="N19" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>166</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2247</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2021</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2021</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2248</v>
+      </c>
+      <c r="G20" t="s">
+        <v>2021</v>
+      </c>
+      <c r="H20" t="s">
+        <v>2249</v>
+      </c>
+      <c r="I20" t="s">
+        <v>2021</v>
+      </c>
+      <c r="J20" t="s">
+        <v>2021</v>
+      </c>
+      <c r="K20" t="s">
+        <v>2021</v>
+      </c>
+      <c r="L20" t="s">
+        <v>2021</v>
+      </c>
+      <c r="M20" t="s">
+        <v>2250</v>
+      </c>
+      <c r="N20" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>174</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2251</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2137</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2021</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2021</v>
+      </c>
+      <c r="F21" t="s">
+        <v>2252</v>
+      </c>
+      <c r="G21" t="s">
+        <v>2253</v>
+      </c>
+      <c r="H21" t="s">
+        <v>2254</v>
+      </c>
+      <c r="I21" t="s">
+        <v>2021</v>
+      </c>
+      <c r="J21" t="s">
+        <v>2021</v>
+      </c>
+      <c r="K21" t="s">
+        <v>2021</v>
+      </c>
+      <c r="L21" t="s">
+        <v>2021</v>
+      </c>
+      <c r="M21" t="s">
+        <v>2173</v>
+      </c>
+      <c r="N21" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2251</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2137</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2021</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2021</v>
+      </c>
+      <c r="F22" t="s">
+        <v>2252</v>
+      </c>
+      <c r="G22" t="s">
+        <v>2253</v>
+      </c>
+      <c r="H22" t="s">
+        <v>2254</v>
+      </c>
+      <c r="I22" t="s">
+        <v>2021</v>
+      </c>
+      <c r="J22" t="s">
+        <v>2021</v>
+      </c>
+      <c r="K22" t="s">
+        <v>2021</v>
+      </c>
+      <c r="L22" t="s">
+        <v>2021</v>
+      </c>
+      <c r="M22" t="s">
+        <v>2173</v>
+      </c>
+      <c r="N22" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>224</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2255</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2256</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2014</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2257</v>
+      </c>
+      <c r="F23" t="s">
+        <v>2258</v>
+      </c>
+      <c r="G23" t="s">
+        <v>2021</v>
+      </c>
+      <c r="H23" t="s">
+        <v>2259</v>
+      </c>
+      <c r="I23" t="s">
+        <v>2021</v>
+      </c>
+      <c r="J23" t="s">
+        <v>2021</v>
+      </c>
+      <c r="K23" t="s">
+        <v>2021</v>
+      </c>
+      <c r="L23" t="s">
+        <v>2021</v>
+      </c>
+      <c r="M23" t="s">
+        <v>2260</v>
+      </c>
+      <c r="N23" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>224</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2255</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2256</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2014</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2257</v>
+      </c>
+      <c r="F24" t="s">
+        <v>2258</v>
+      </c>
+      <c r="G24" t="s">
+        <v>2021</v>
+      </c>
+      <c r="H24" t="s">
+        <v>2259</v>
+      </c>
+      <c r="I24" t="s">
+        <v>2021</v>
+      </c>
+      <c r="J24" t="s">
+        <v>2021</v>
+      </c>
+      <c r="K24" t="s">
+        <v>2021</v>
+      </c>
+      <c r="L24" t="s">
+        <v>2021</v>
+      </c>
+      <c r="M24" t="s">
+        <v>2260</v>
+      </c>
+      <c r="N24" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3">
+        <v>269397</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2262</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2044</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F25" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G25" t="s">
+        <v>2265</v>
+      </c>
+      <c r="H25" t="s">
+        <v>2266</v>
+      </c>
+      <c r="I25" t="s">
+        <v>2267</v>
+      </c>
+      <c r="J25" t="s">
+        <v>2044</v>
+      </c>
+      <c r="K25" t="s">
+        <v>2044</v>
+      </c>
+      <c r="L25" t="s">
+        <v>2044</v>
+      </c>
+      <c r="M25" t="s">
+        <v>2268</v>
+      </c>
+      <c r="N25" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2780</v>
+      </c>
+      <c r="B27" s="3">
+        <v>79512</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>231</v>
+      </c>
+      <c r="B28" s="3">
+        <v>434309</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>501</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2270</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2271</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2021</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2272</v>
+      </c>
+      <c r="F29" t="s">
+        <v>2273</v>
+      </c>
+      <c r="G29" t="s">
+        <v>2274</v>
+      </c>
+      <c r="H29" t="s">
+        <v>2275</v>
+      </c>
+      <c r="I29" t="s">
+        <v>2020</v>
+      </c>
+      <c r="J29" t="s">
+        <v>2021</v>
+      </c>
+      <c r="K29" t="s">
+        <v>2021</v>
+      </c>
+      <c r="L29" t="s">
+        <v>2021</v>
+      </c>
+      <c r="M29" t="s">
+        <v>2276</v>
+      </c>
+      <c r="N29" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>730</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2278</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2013</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2014</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2015</v>
+      </c>
+      <c r="F30" t="s">
+        <v>2016</v>
+      </c>
+      <c r="G30" t="s">
+        <v>2017</v>
+      </c>
+      <c r="H30" t="s">
+        <v>2018</v>
+      </c>
+      <c r="I30" t="s">
+        <v>2019</v>
+      </c>
+      <c r="J30" t="s">
+        <v>2020</v>
+      </c>
+      <c r="K30" t="s">
+        <v>2021</v>
+      </c>
+      <c r="L30" t="s">
+        <v>2021</v>
+      </c>
+      <c r="M30" t="s">
+        <v>2279</v>
+      </c>
+      <c r="N30" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2280</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2025</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2026</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2027</v>
+      </c>
+      <c r="F31" t="s">
+        <v>2028</v>
+      </c>
+      <c r="G31" t="s">
+        <v>2029</v>
+      </c>
+      <c r="H31" t="s">
+        <v>2030</v>
+      </c>
+      <c r="I31" t="s">
+        <v>2031</v>
+      </c>
+      <c r="J31" t="s">
+        <v>2032</v>
+      </c>
+      <c r="K31" t="s">
+        <v>1997</v>
+      </c>
+      <c r="L31" t="s">
+        <v>1998</v>
+      </c>
+      <c r="M31" t="s">
+        <v>2281</v>
+      </c>
+      <c r="N31" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
+  <dimension ref="A1:N27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1976</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1978</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1981</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1982</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1983</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1984</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1985</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1986</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1203331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3">
+        <v>24410210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>599</v>
+      </c>
+      <c r="B5" s="3">
+        <v>130600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>624</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3159322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="3">
+        <v>621450</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>702</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2716750</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>513</v>
+      </c>
+      <c r="B9" s="3">
+        <v>5446372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B10" s="3">
+        <v>203201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>550</v>
+      </c>
+      <c r="B11" s="3">
+        <v>10183402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B12" s="3">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>493</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1919595</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>464</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1139000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>730</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1988</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1990</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1991</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1992</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1993</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1994</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1995</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1996</v>
+      </c>
+      <c r="K15" t="s">
+        <v>1997</v>
+      </c>
+      <c r="L15" t="s">
+        <v>1998</v>
+      </c>
+      <c r="M15" t="s">
+        <v>1999</v>
+      </c>
+      <c r="N15" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2002</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2003</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2004</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2005</v>
+      </c>
+      <c r="H16" t="s">
+        <v>2006</v>
+      </c>
+      <c r="I16" t="s">
+        <v>2007</v>
+      </c>
+      <c r="J16" t="s">
+        <v>2008</v>
+      </c>
+      <c r="K16" t="s">
+        <v>2009</v>
+      </c>
+      <c r="L16" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M16" t="s">
+        <v>2010</v>
+      </c>
+      <c r="N16" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>471</v>
+      </c>
+      <c r="B17" s="3">
+        <v>242504</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1803974</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" s="3">
+        <v>97695477</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>527</v>
+      </c>
+      <c r="B20" s="3">
+        <v>84940</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21" s="3">
+        <v>69601</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>166</v>
+      </c>
+      <c r="B22" s="3">
+        <v>71302</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>174</v>
+      </c>
+      <c r="B23" s="3">
+        <v>392260</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>224</v>
+      </c>
+      <c r="B24" s="3">
+        <v>93916</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>501</v>
+      </c>
+      <c r="B25" s="3">
+        <v>778218</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>730</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2013</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2014</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2015</v>
+      </c>
+      <c r="F26" t="s">
+        <v>2016</v>
+      </c>
+      <c r="G26" t="s">
+        <v>2017</v>
+      </c>
+      <c r="H26" t="s">
+        <v>2018</v>
+      </c>
+      <c r="I26" t="s">
+        <v>2019</v>
+      </c>
+      <c r="J26" t="s">
+        <v>2020</v>
+      </c>
+      <c r="K26" t="s">
+        <v>2021</v>
+      </c>
+      <c r="L26" t="s">
+        <v>2021</v>
+      </c>
+      <c r="M26" t="s">
+        <v>2022</v>
+      </c>
+      <c r="N26" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2025</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2026</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2027</v>
+      </c>
+      <c r="F27" t="s">
+        <v>2028</v>
+      </c>
+      <c r="G27" t="s">
+        <v>2029</v>
+      </c>
+      <c r="H27" t="s">
+        <v>2030</v>
+      </c>
+      <c r="I27" t="s">
+        <v>2031</v>
+      </c>
+      <c r="J27" t="s">
+        <v>2032</v>
+      </c>
+      <c r="K27" t="s">
+        <v>1997</v>
+      </c>
+      <c r="L27" t="s">
+        <v>1998</v>
+      </c>
+      <c r="M27" t="s">
+        <v>2033</v>
+      </c>
+      <c r="N27" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29727,1281 +32100,6 @@
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2036</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
-  <dimension ref="A1:A6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2038</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2039</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2041</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
-  <dimension ref="A1:N18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="7.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1036</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1037</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1038</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1039</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>1040</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>1041</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>1042</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>1043</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>1044</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1117</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2042</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2043</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2044</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2045</v>
-      </c>
-      <c r="F4" t="s">
-        <v>2046</v>
-      </c>
-      <c r="G4" t="s">
-        <v>2044</v>
-      </c>
-      <c r="H4" t="s">
-        <v>2047</v>
-      </c>
-      <c r="I4" t="s">
-        <v>2048</v>
-      </c>
-      <c r="J4" t="s">
-        <v>2049</v>
-      </c>
-      <c r="K4" t="s">
-        <v>2044</v>
-      </c>
-      <c r="L4" t="s">
-        <v>2044</v>
-      </c>
-      <c r="M4" t="s">
-        <v>2050</v>
-      </c>
-      <c r="N4" t="s">
-        <v>2051</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2052</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2053</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2021</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2054</v>
-      </c>
-      <c r="F5" t="s">
-        <v>2055</v>
-      </c>
-      <c r="G5" t="s">
-        <v>2021</v>
-      </c>
-      <c r="H5" t="s">
-        <v>2056</v>
-      </c>
-      <c r="I5" t="s">
-        <v>1995</v>
-      </c>
-      <c r="J5" t="s">
-        <v>2057</v>
-      </c>
-      <c r="K5" t="s">
-        <v>2021</v>
-      </c>
-      <c r="L5" t="s">
-        <v>2021</v>
-      </c>
-      <c r="M5" t="s">
-        <v>2058</v>
-      </c>
-      <c r="N5" t="s">
-        <v>2059</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1122</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2060</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2061</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2062</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2063</v>
-      </c>
-      <c r="F6" t="s">
-        <v>2064</v>
-      </c>
-      <c r="G6" t="s">
-        <v>2065</v>
-      </c>
-      <c r="H6" t="s">
-        <v>2066</v>
-      </c>
-      <c r="I6" t="s">
-        <v>2062</v>
-      </c>
-      <c r="J6" t="s">
-        <v>2062</v>
-      </c>
-      <c r="K6" t="s">
-        <v>2062</v>
-      </c>
-      <c r="L6" t="s">
-        <v>2062</v>
-      </c>
-      <c r="M6" t="s">
-        <v>2067</v>
-      </c>
-      <c r="N6" t="s">
-        <v>2068</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2069</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2070</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2021</v>
-      </c>
-      <c r="E7" t="s">
-        <v>2071</v>
-      </c>
-      <c r="F7" t="s">
-        <v>2072</v>
-      </c>
-      <c r="G7" t="s">
-        <v>2073</v>
-      </c>
-      <c r="H7" t="s">
-        <v>2074</v>
-      </c>
-      <c r="I7" t="s">
-        <v>2021</v>
-      </c>
-      <c r="J7" t="s">
-        <v>2021</v>
-      </c>
-      <c r="K7" t="s">
-        <v>2021</v>
-      </c>
-      <c r="L7" t="s">
-        <v>2021</v>
-      </c>
-      <c r="M7" t="s">
-        <v>2075</v>
-      </c>
-      <c r="N7" t="s">
-        <v>2076</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1137</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2077</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2078</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2078</v>
-      </c>
-      <c r="E8" t="s">
-        <v>2078</v>
-      </c>
-      <c r="F8" t="s">
-        <v>2079</v>
-      </c>
-      <c r="G8" t="s">
-        <v>2078</v>
-      </c>
-      <c r="H8" t="s">
-        <v>2080</v>
-      </c>
-      <c r="I8" t="s">
-        <v>2078</v>
-      </c>
-      <c r="J8" t="s">
-        <v>2078</v>
-      </c>
-      <c r="K8" t="s">
-        <v>2081</v>
-      </c>
-      <c r="L8" t="s">
-        <v>2078</v>
-      </c>
-      <c r="M8" t="s">
-        <v>2082</v>
-      </c>
-      <c r="N8" t="s">
-        <v>2083</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>599</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2084</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2021</v>
-      </c>
-      <c r="D9" t="s">
-        <v>2021</v>
-      </c>
-      <c r="E9" t="s">
-        <v>2021</v>
-      </c>
-      <c r="F9" t="s">
-        <v>2085</v>
-      </c>
-      <c r="G9" t="s">
-        <v>2021</v>
-      </c>
-      <c r="H9" t="s">
-        <v>2086</v>
-      </c>
-      <c r="I9" t="s">
-        <v>2021</v>
-      </c>
-      <c r="J9" t="s">
-        <v>2021</v>
-      </c>
-      <c r="K9" t="s">
-        <v>1997</v>
-      </c>
-      <c r="L9" t="s">
-        <v>2021</v>
-      </c>
-      <c r="M9" t="s">
-        <v>2087</v>
-      </c>
-      <c r="N9" t="s">
-        <v>2059</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2088</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2078</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2078</v>
-      </c>
-      <c r="E10" t="s">
-        <v>2089</v>
-      </c>
-      <c r="F10" t="s">
-        <v>2090</v>
-      </c>
-      <c r="G10" t="s">
-        <v>2091</v>
-      </c>
-      <c r="H10" t="s">
-        <v>2092</v>
-      </c>
-      <c r="I10" t="s">
-        <v>2078</v>
-      </c>
-      <c r="J10" t="s">
-        <v>2078</v>
-      </c>
-      <c r="K10" t="s">
-        <v>2078</v>
-      </c>
-      <c r="L10" t="s">
-        <v>2078</v>
-      </c>
-      <c r="M10" t="s">
-        <v>2093</v>
-      </c>
-      <c r="N10" t="s">
-        <v>2078</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>624</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2094</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2021</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2021</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2095</v>
-      </c>
-      <c r="F11" t="s">
-        <v>2096</v>
-      </c>
-      <c r="G11" t="s">
-        <v>2097</v>
-      </c>
-      <c r="H11" t="s">
-        <v>2098</v>
-      </c>
-      <c r="I11" t="s">
-        <v>2021</v>
-      </c>
-      <c r="J11" t="s">
-        <v>2021</v>
-      </c>
-      <c r="K11" t="s">
-        <v>2021</v>
-      </c>
-      <c r="L11" t="s">
-        <v>2021</v>
-      </c>
-      <c r="M11" t="s">
-        <v>2099</v>
-      </c>
-      <c r="N11" t="s">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2100</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2021</v>
-      </c>
-      <c r="D12" t="s">
-        <v>2021</v>
-      </c>
-      <c r="E12" t="s">
-        <v>2101</v>
-      </c>
-      <c r="F12" t="s">
-        <v>2102</v>
-      </c>
-      <c r="G12" t="s">
-        <v>2103</v>
-      </c>
-      <c r="H12" t="s">
-        <v>2104</v>
-      </c>
-      <c r="I12" t="s">
-        <v>2021</v>
-      </c>
-      <c r="J12" t="s">
-        <v>2021</v>
-      </c>
-      <c r="K12" t="s">
-        <v>2021</v>
-      </c>
-      <c r="L12" t="s">
-        <v>2021</v>
-      </c>
-      <c r="M12" t="s">
-        <v>2105</v>
-      </c>
-      <c r="N12" t="s">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2100</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2021</v>
-      </c>
-      <c r="D13" t="s">
-        <v>2021</v>
-      </c>
-      <c r="E13" t="s">
-        <v>2101</v>
-      </c>
-      <c r="F13" t="s">
-        <v>2102</v>
-      </c>
-      <c r="G13" t="s">
-        <v>2103</v>
-      </c>
-      <c r="H13" t="s">
-        <v>2104</v>
-      </c>
-      <c r="I13" t="s">
-        <v>2021</v>
-      </c>
-      <c r="J13" t="s">
-        <v>2021</v>
-      </c>
-      <c r="K13" t="s">
-        <v>2021</v>
-      </c>
-      <c r="L13" t="s">
-        <v>2021</v>
-      </c>
-      <c r="M13" t="s">
-        <v>2105</v>
-      </c>
-      <c r="N13" t="s">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>1167</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2106</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2107</v>
-      </c>
-      <c r="D14" t="s">
-        <v>2108</v>
-      </c>
-      <c r="E14" t="s">
-        <v>2109</v>
-      </c>
-      <c r="F14" t="s">
-        <v>2110</v>
-      </c>
-      <c r="G14" t="s">
-        <v>2078</v>
-      </c>
-      <c r="H14" t="s">
-        <v>2111</v>
-      </c>
-      <c r="I14" t="s">
-        <v>2078</v>
-      </c>
-      <c r="J14" t="s">
-        <v>2112</v>
-      </c>
-      <c r="K14" t="s">
-        <v>2078</v>
-      </c>
-      <c r="L14" t="s">
-        <v>2078</v>
-      </c>
-      <c r="M14" t="s">
-        <v>2113</v>
-      </c>
-      <c r="N14" t="s">
-        <v>2114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>702</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2115</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2116</v>
-      </c>
-      <c r="D15" t="s">
-        <v>2102</v>
-      </c>
-      <c r="E15" t="s">
-        <v>2117</v>
-      </c>
-      <c r="F15" t="s">
-        <v>2118</v>
-      </c>
-      <c r="G15" t="s">
-        <v>2021</v>
-      </c>
-      <c r="H15" t="s">
-        <v>2119</v>
-      </c>
-      <c r="I15" t="s">
-        <v>2021</v>
-      </c>
-      <c r="J15" t="s">
-        <v>2120</v>
-      </c>
-      <c r="K15" t="s">
-        <v>2021</v>
-      </c>
-      <c r="L15" t="s">
-        <v>2021</v>
-      </c>
-      <c r="M15" t="s">
-        <v>2121</v>
-      </c>
-      <c r="N15" t="s">
-        <v>2122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2123</v>
-      </c>
-      <c r="C16" t="s">
-        <v>2062</v>
-      </c>
-      <c r="D16" t="s">
-        <v>2124</v>
-      </c>
-      <c r="E16" t="s">
-        <v>2125</v>
-      </c>
-      <c r="F16" t="s">
-        <v>2126</v>
-      </c>
-      <c r="G16" t="s">
-        <v>2062</v>
-      </c>
-      <c r="H16" t="s">
-        <v>2127</v>
-      </c>
-      <c r="I16" t="s">
-        <v>2062</v>
-      </c>
-      <c r="J16" t="s">
-        <v>2128</v>
-      </c>
-      <c r="K16" t="s">
-        <v>2062</v>
-      </c>
-      <c r="L16" t="s">
-        <v>2129</v>
-      </c>
-      <c r="M16" t="s">
-        <v>2130</v>
-      </c>
-      <c r="N16" t="s">
-        <v>2062</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>513</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2131</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2021</v>
-      </c>
-      <c r="D17" t="s">
-        <v>2132</v>
-      </c>
-      <c r="E17" t="s">
-        <v>2133</v>
-      </c>
-      <c r="F17" t="s">
-        <v>2134</v>
-      </c>
-      <c r="G17" t="s">
-        <v>2021</v>
-      </c>
-      <c r="H17" t="s">
-        <v>2135</v>
-      </c>
-      <c r="I17" t="s">
-        <v>2021</v>
-      </c>
-      <c r="J17" t="s">
-        <v>2136</v>
-      </c>
-      <c r="K17" t="s">
-        <v>2021</v>
-      </c>
-      <c r="L17" t="s">
-        <v>2137</v>
-      </c>
-      <c r="M17" t="s">
-        <v>2138</v>
-      </c>
-      <c r="N17" t="s">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>2139</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
-  <dimension ref="A1:N15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1036</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1037</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1038</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1039</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>1040</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>1041</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>1042</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>1043</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>1044</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2140</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2141</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2142</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2143</v>
-      </c>
-      <c r="F3" t="s">
-        <v>2144</v>
-      </c>
-      <c r="G3" t="s">
-        <v>2145</v>
-      </c>
-      <c r="H3" t="s">
-        <v>2146</v>
-      </c>
-      <c r="I3" t="s">
-        <v>2142</v>
-      </c>
-      <c r="J3" t="s">
-        <v>2142</v>
-      </c>
-      <c r="K3" t="s">
-        <v>2142</v>
-      </c>
-      <c r="L3" t="s">
-        <v>2142</v>
-      </c>
-      <c r="M3" t="s">
-        <v>2147</v>
-      </c>
-      <c r="N3" t="s">
-        <v>2148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2149</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2150</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2021</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2151</v>
-      </c>
-      <c r="F5" t="s">
-        <v>2152</v>
-      </c>
-      <c r="G5" t="s">
-        <v>2153</v>
-      </c>
-      <c r="H5" t="s">
-        <v>2154</v>
-      </c>
-      <c r="I5" t="s">
-        <v>2021</v>
-      </c>
-      <c r="J5" t="s">
-        <v>2021</v>
-      </c>
-      <c r="K5" t="s">
-        <v>2021</v>
-      </c>
-      <c r="L5" t="s">
-        <v>2021</v>
-      </c>
-      <c r="M5" t="s">
-        <v>2155</v>
-      </c>
-      <c r="N5" t="s">
-        <v>2156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1211</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2157</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2062</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2062</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2158</v>
-      </c>
-      <c r="F6" t="s">
-        <v>2159</v>
-      </c>
-      <c r="G6" t="s">
-        <v>2160</v>
-      </c>
-      <c r="H6" t="s">
-        <v>2161</v>
-      </c>
-      <c r="I6" t="s">
-        <v>2062</v>
-      </c>
-      <c r="J6" t="s">
-        <v>2062</v>
-      </c>
-      <c r="K6" t="s">
-        <v>2062</v>
-      </c>
-      <c r="L6" t="s">
-        <v>2062</v>
-      </c>
-      <c r="M6" t="s">
-        <v>2162</v>
-      </c>
-      <c r="N6" t="s">
-        <v>2163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>550</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2164</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2021</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2021</v>
-      </c>
-      <c r="E7" t="s">
-        <v>2165</v>
-      </c>
-      <c r="F7" t="s">
-        <v>2166</v>
-      </c>
-      <c r="G7" t="s">
-        <v>2167</v>
-      </c>
-      <c r="H7" t="s">
-        <v>2168</v>
-      </c>
-      <c r="I7" t="s">
-        <v>2021</v>
-      </c>
-      <c r="J7" t="s">
-        <v>2021</v>
-      </c>
-      <c r="K7" t="s">
-        <v>2021</v>
-      </c>
-      <c r="L7" t="s">
-        <v>2021</v>
-      </c>
-      <c r="M7" t="s">
-        <v>2169</v>
-      </c>
-      <c r="N7" t="s">
-        <v>2170</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2171</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2021</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2021</v>
-      </c>
-      <c r="E8" t="s">
-        <v>2172</v>
-      </c>
-      <c r="F8" t="s">
-        <v>2021</v>
-      </c>
-      <c r="G8" t="s">
-        <v>2102</v>
-      </c>
-      <c r="H8" t="s">
-        <v>2173</v>
-      </c>
-      <c r="I8" t="s">
-        <v>2021</v>
-      </c>
-      <c r="J8" t="s">
-        <v>2021</v>
-      </c>
-      <c r="K8" t="s">
-        <v>2021</v>
-      </c>
-      <c r="L8" t="s">
-        <v>2170</v>
-      </c>
-      <c r="M8" t="s">
-        <v>2174</v>
-      </c>
-      <c r="N8" t="s">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>203</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2171</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2021</v>
-      </c>
-      <c r="D9" t="s">
-        <v>2021</v>
-      </c>
-      <c r="E9" t="s">
-        <v>2172</v>
-      </c>
-      <c r="F9" t="s">
-        <v>2021</v>
-      </c>
-      <c r="G9" t="s">
-        <v>2102</v>
-      </c>
-      <c r="H9" t="s">
-        <v>2173</v>
-      </c>
-      <c r="I9" t="s">
-        <v>2021</v>
-      </c>
-      <c r="J9" t="s">
-        <v>2021</v>
-      </c>
-      <c r="K9" t="s">
-        <v>2021</v>
-      </c>
-      <c r="L9" t="s">
-        <v>2170</v>
-      </c>
-      <c r="M9" t="s">
-        <v>2174</v>
-      </c>
-      <c r="N9" t="s">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>1231</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2175</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2176</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2176</v>
-      </c>
-      <c r="E10" t="s">
-        <v>2177</v>
-      </c>
-      <c r="F10" t="s">
-        <v>2178</v>
-      </c>
-      <c r="G10" t="s">
-        <v>2176</v>
-      </c>
-      <c r="H10" t="s">
-        <v>2179</v>
-      </c>
-      <c r="I10" t="s">
-        <v>2176</v>
-      </c>
-      <c r="J10" t="s">
-        <v>2176</v>
-      </c>
-      <c r="K10" t="s">
-        <v>2176</v>
-      </c>
-      <c r="L10" t="s">
-        <v>2180</v>
-      </c>
-      <c r="M10" t="s">
-        <v>2181</v>
-      </c>
-      <c r="N10" t="s">
-        <v>2182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>493</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2183</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2021</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2021</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2184</v>
-      </c>
-      <c r="F11" t="s">
-        <v>2185</v>
-      </c>
-      <c r="G11" t="s">
-        <v>2021</v>
-      </c>
-      <c r="H11" t="s">
-        <v>2186</v>
-      </c>
-      <c r="I11" t="s">
-        <v>2021</v>
-      </c>
-      <c r="J11" t="s">
-        <v>2021</v>
-      </c>
-      <c r="K11" t="s">
-        <v>2021</v>
-      </c>
-      <c r="L11" t="s">
-        <v>2187</v>
-      </c>
-      <c r="M11" t="s">
-        <v>2188</v>
-      </c>
-      <c r="N11" t="s">
-        <v>2165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>1246</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2189</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2062</v>
-      </c>
-      <c r="D12" t="s">
-        <v>2062</v>
-      </c>
-      <c r="E12" t="s">
-        <v>2062</v>
-      </c>
-      <c r="F12" t="s">
-        <v>2190</v>
-      </c>
-      <c r="G12" t="s">
-        <v>2062</v>
-      </c>
-      <c r="H12" t="s">
-        <v>2191</v>
-      </c>
-      <c r="I12" t="s">
-        <v>2062</v>
-      </c>
-      <c r="J12" t="s">
-        <v>2062</v>
-      </c>
-      <c r="K12" t="s">
-        <v>2062</v>
-      </c>
-      <c r="L12" t="s">
-        <v>2062</v>
-      </c>
-      <c r="M12" t="s">
-        <v>2158</v>
-      </c>
-      <c r="N12" t="s">
-        <v>2062</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>464</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2192</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2021</v>
-      </c>
-      <c r="D13" t="s">
-        <v>2021</v>
-      </c>
-      <c r="E13" t="s">
-        <v>2021</v>
-      </c>
-      <c r="F13" t="s">
-        <v>2193</v>
-      </c>
-      <c r="G13" t="s">
-        <v>2021</v>
-      </c>
-      <c r="H13" t="s">
-        <v>2194</v>
-      </c>
-      <c r="I13" t="s">
-        <v>2021</v>
-      </c>
-      <c r="J13" t="s">
-        <v>2021</v>
-      </c>
-      <c r="K13" t="s">
-        <v>2021</v>
-      </c>
-      <c r="L13" t="s">
-        <v>2021</v>
-      </c>
-      <c r="M13" t="s">
-        <v>2165</v>
-      </c>
-      <c r="N13" t="s">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>730</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2195</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1989</v>
-      </c>
-      <c r="D14" t="s">
-        <v>2196</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1991</v>
-      </c>
-      <c r="F14" t="s">
-        <v>1992</v>
-      </c>
-      <c r="G14" t="s">
-        <v>1993</v>
-      </c>
-      <c r="H14" t="s">
-        <v>2197</v>
-      </c>
-      <c r="I14" t="s">
-        <v>1995</v>
-      </c>
-      <c r="J14" t="s">
-        <v>1996</v>
-      </c>
-      <c r="K14" t="s">
-        <v>1997</v>
-      </c>
-      <c r="L14" t="s">
-        <v>1998</v>
-      </c>
-      <c r="M14" t="s">
-        <v>1999</v>
-      </c>
-      <c r="N14" t="s">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>2198</v>
       </c>
     </row>
   </sheetData>
@@ -31107,945 +32205,38 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
-  <dimension ref="A1:N24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:N4"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1036</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1037</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1038</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1039</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>1040</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>1041</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>1042</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>1043</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>1044</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1263</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2199</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2200</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2062</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2201</v>
-      </c>
-      <c r="F4" t="s">
-        <v>2202</v>
-      </c>
-      <c r="G4" t="s">
-        <v>2062</v>
-      </c>
-      <c r="H4" t="s">
-        <v>2203</v>
-      </c>
-      <c r="I4" t="s">
-        <v>2204</v>
-      </c>
-      <c r="J4" t="s">
-        <v>2062</v>
-      </c>
-      <c r="K4" t="s">
-        <v>2062</v>
-      </c>
-      <c r="L4" t="s">
-        <v>2062</v>
-      </c>
-      <c r="M4" t="s">
-        <v>2205</v>
-      </c>
-      <c r="N4" t="s">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>471</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2206</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2170</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2021</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2207</v>
-      </c>
-      <c r="F5" t="s">
-        <v>2208</v>
-      </c>
-      <c r="G5" t="s">
-        <v>2021</v>
-      </c>
-      <c r="H5" t="s">
-        <v>2209</v>
-      </c>
-      <c r="I5" t="s">
-        <v>2210</v>
-      </c>
-      <c r="J5" t="s">
-        <v>2021</v>
-      </c>
-      <c r="K5" t="s">
-        <v>2021</v>
-      </c>
-      <c r="L5" t="s">
-        <v>2021</v>
-      </c>
-      <c r="M5" t="s">
-        <v>2211</v>
-      </c>
-      <c r="N5" t="s">
-        <v>2170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1265</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2212</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2213</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2078</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2214</v>
-      </c>
-      <c r="F6" t="s">
-        <v>2215</v>
-      </c>
-      <c r="G6" t="s">
-        <v>2216</v>
-      </c>
-      <c r="H6" t="s">
-        <v>2217</v>
-      </c>
-      <c r="I6" t="s">
-        <v>2078</v>
-      </c>
-      <c r="J6" t="s">
-        <v>2218</v>
-      </c>
-      <c r="K6" t="s">
-        <v>2078</v>
-      </c>
-      <c r="L6" t="s">
-        <v>2078</v>
-      </c>
-      <c r="M6" t="s">
-        <v>2219</v>
-      </c>
-      <c r="N6" t="s">
-        <v>2078</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1275</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2220</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2221</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2021</v>
-      </c>
-      <c r="E7" t="s">
-        <v>2222</v>
-      </c>
-      <c r="F7" t="s">
-        <v>2223</v>
-      </c>
-      <c r="G7" t="s">
-        <v>2224</v>
-      </c>
-      <c r="H7" t="s">
-        <v>2225</v>
-      </c>
-      <c r="I7" t="s">
-        <v>2021</v>
-      </c>
-      <c r="J7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="K7" t="s">
-        <v>2021</v>
-      </c>
-      <c r="L7" t="s">
-        <v>2021</v>
-      </c>
-      <c r="M7" t="s">
-        <v>2226</v>
-      </c>
-      <c r="N7" t="s">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2227</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2021</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2021</v>
-      </c>
-      <c r="E8" t="s">
-        <v>2228</v>
-      </c>
-      <c r="F8" t="s">
-        <v>2229</v>
-      </c>
-      <c r="G8" t="s">
-        <v>2021</v>
-      </c>
-      <c r="H8" t="s">
-        <v>2165</v>
-      </c>
-      <c r="I8" t="s">
-        <v>2021</v>
-      </c>
-      <c r="J8" t="s">
-        <v>2021</v>
-      </c>
-      <c r="K8" t="s">
-        <v>2021</v>
-      </c>
-      <c r="L8" t="s">
-        <v>2021</v>
-      </c>
-      <c r="M8" t="s">
-        <v>2230</v>
-      </c>
-      <c r="N8" t="s">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2227</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2021</v>
-      </c>
-      <c r="D9" t="s">
-        <v>2021</v>
-      </c>
-      <c r="E9" t="s">
-        <v>2228</v>
-      </c>
-      <c r="F9" t="s">
-        <v>2229</v>
-      </c>
-      <c r="G9" t="s">
-        <v>2021</v>
-      </c>
-      <c r="H9" t="s">
-        <v>2165</v>
-      </c>
-      <c r="I9" t="s">
-        <v>2021</v>
-      </c>
-      <c r="J9" t="s">
-        <v>2021</v>
-      </c>
-      <c r="K9" t="s">
-        <v>2021</v>
-      </c>
-      <c r="L9" t="s">
-        <v>2021</v>
-      </c>
-      <c r="M9" t="s">
-        <v>2230</v>
-      </c>
-      <c r="N9" t="s">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>1278</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2231</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2232</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2062</v>
-      </c>
-      <c r="E10" t="s">
-        <v>2233</v>
-      </c>
-      <c r="F10" t="s">
-        <v>2234</v>
-      </c>
-      <c r="G10" t="s">
-        <v>2062</v>
-      </c>
-      <c r="H10" t="s">
-        <v>2235</v>
-      </c>
-      <c r="I10" t="s">
-        <v>2062</v>
-      </c>
-      <c r="J10" t="s">
-        <v>2062</v>
-      </c>
-      <c r="K10" t="s">
-        <v>2062</v>
-      </c>
-      <c r="L10" t="s">
-        <v>2062</v>
-      </c>
-      <c r="M10" t="s">
-        <v>2062</v>
-      </c>
-      <c r="N10" t="s">
-        <v>2062</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>527</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2236</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2172</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2021</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2237</v>
-      </c>
-      <c r="F11" t="s">
-        <v>2238</v>
-      </c>
-      <c r="G11" t="s">
-        <v>2021</v>
-      </c>
-      <c r="H11" t="s">
-        <v>2239</v>
-      </c>
-      <c r="I11" t="s">
-        <v>2021</v>
-      </c>
-      <c r="J11" t="s">
-        <v>2021</v>
-      </c>
-      <c r="K11" t="s">
-        <v>2021</v>
-      </c>
-      <c r="L11" t="s">
-        <v>2021</v>
-      </c>
-      <c r="M11" t="s">
-        <v>2021</v>
-      </c>
-      <c r="N11" t="s">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>1284</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2240</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2062</v>
-      </c>
-      <c r="D12" t="s">
-        <v>2062</v>
-      </c>
-      <c r="E12" t="s">
-        <v>2062</v>
-      </c>
-      <c r="F12" t="s">
-        <v>2062</v>
-      </c>
-      <c r="G12" t="s">
-        <v>2062</v>
-      </c>
-      <c r="H12" t="s">
-        <v>2241</v>
-      </c>
-      <c r="I12" t="s">
-        <v>2062</v>
-      </c>
-      <c r="J12" t="s">
-        <v>2062</v>
-      </c>
-      <c r="K12" t="s">
-        <v>2062</v>
-      </c>
-      <c r="L12" t="s">
-        <v>2062</v>
-      </c>
-      <c r="M12" t="s">
-        <v>2242</v>
-      </c>
-      <c r="N12" t="s">
-        <v>2243</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>161</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2244</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2021</v>
-      </c>
-      <c r="D13" t="s">
-        <v>2021</v>
-      </c>
-      <c r="E13" t="s">
-        <v>2021</v>
-      </c>
-      <c r="F13" t="s">
-        <v>2021</v>
-      </c>
-      <c r="G13" t="s">
-        <v>2021</v>
-      </c>
-      <c r="H13" t="s">
-        <v>2245</v>
-      </c>
-      <c r="I13" t="s">
-        <v>2021</v>
-      </c>
-      <c r="J13" t="s">
-        <v>2021</v>
-      </c>
-      <c r="K13" t="s">
-        <v>2021</v>
-      </c>
-      <c r="L13" t="s">
-        <v>2021</v>
-      </c>
-      <c r="M13" t="s">
-        <v>2073</v>
-      </c>
-      <c r="N13" t="s">
-        <v>2246</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>166</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2247</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2021</v>
-      </c>
-      <c r="D14" t="s">
-        <v>2021</v>
-      </c>
-      <c r="E14" t="s">
-        <v>2021</v>
-      </c>
-      <c r="F14" t="s">
-        <v>2248</v>
-      </c>
-      <c r="G14" t="s">
-        <v>2021</v>
-      </c>
-      <c r="H14" t="s">
-        <v>2249</v>
-      </c>
-      <c r="I14" t="s">
-        <v>2021</v>
-      </c>
-      <c r="J14" t="s">
-        <v>2021</v>
-      </c>
-      <c r="K14" t="s">
-        <v>2021</v>
-      </c>
-      <c r="L14" t="s">
-        <v>2021</v>
-      </c>
-      <c r="M14" t="s">
-        <v>2250</v>
-      </c>
-      <c r="N14" t="s">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>166</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2247</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2021</v>
-      </c>
-      <c r="D15" t="s">
-        <v>2021</v>
-      </c>
-      <c r="E15" t="s">
-        <v>2021</v>
-      </c>
-      <c r="F15" t="s">
-        <v>2248</v>
-      </c>
-      <c r="G15" t="s">
-        <v>2021</v>
-      </c>
-      <c r="H15" t="s">
-        <v>2249</v>
-      </c>
-      <c r="I15" t="s">
-        <v>2021</v>
-      </c>
-      <c r="J15" t="s">
-        <v>2021</v>
-      </c>
-      <c r="K15" t="s">
-        <v>2021</v>
-      </c>
-      <c r="L15" t="s">
-        <v>2021</v>
-      </c>
-      <c r="M15" t="s">
-        <v>2250</v>
-      </c>
-      <c r="N15" t="s">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>174</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2251</v>
-      </c>
-      <c r="C16" t="s">
-        <v>2137</v>
-      </c>
-      <c r="D16" t="s">
-        <v>2021</v>
-      </c>
-      <c r="E16" t="s">
-        <v>2021</v>
-      </c>
-      <c r="F16" t="s">
-        <v>2252</v>
-      </c>
-      <c r="G16" t="s">
-        <v>2253</v>
-      </c>
-      <c r="H16" t="s">
-        <v>2254</v>
-      </c>
-      <c r="I16" t="s">
-        <v>2021</v>
-      </c>
-      <c r="J16" t="s">
-        <v>2021</v>
-      </c>
-      <c r="K16" t="s">
-        <v>2021</v>
-      </c>
-      <c r="L16" t="s">
-        <v>2021</v>
-      </c>
-      <c r="M16" t="s">
-        <v>2173</v>
-      </c>
-      <c r="N16" t="s">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>174</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2251</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2137</v>
-      </c>
-      <c r="D17" t="s">
-        <v>2021</v>
-      </c>
-      <c r="E17" t="s">
-        <v>2021</v>
-      </c>
-      <c r="F17" t="s">
-        <v>2252</v>
-      </c>
-      <c r="G17" t="s">
-        <v>2253</v>
-      </c>
-      <c r="H17" t="s">
-        <v>2254</v>
-      </c>
-      <c r="I17" t="s">
-        <v>2021</v>
-      </c>
-      <c r="J17" t="s">
-        <v>2021</v>
-      </c>
-      <c r="K17" t="s">
-        <v>2021</v>
-      </c>
-      <c r="L17" t="s">
-        <v>2021</v>
-      </c>
-      <c r="M17" t="s">
-        <v>2173</v>
-      </c>
-      <c r="N17" t="s">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>224</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2255</v>
-      </c>
-      <c r="C18" t="s">
-        <v>2256</v>
-      </c>
-      <c r="D18" t="s">
-        <v>2014</v>
-      </c>
-      <c r="E18" t="s">
-        <v>2257</v>
-      </c>
-      <c r="F18" t="s">
-        <v>2258</v>
-      </c>
-      <c r="G18" t="s">
-        <v>2021</v>
-      </c>
-      <c r="H18" t="s">
-        <v>2259</v>
-      </c>
-      <c r="I18" t="s">
-        <v>2021</v>
-      </c>
-      <c r="J18" t="s">
-        <v>2021</v>
-      </c>
-      <c r="K18" t="s">
-        <v>2021</v>
-      </c>
-      <c r="L18" t="s">
-        <v>2021</v>
-      </c>
-      <c r="M18" t="s">
-        <v>2260</v>
-      </c>
-      <c r="N18" t="s">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>224</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2255</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2256</v>
-      </c>
-      <c r="D19" t="s">
-        <v>2014</v>
-      </c>
-      <c r="E19" t="s">
-        <v>2257</v>
-      </c>
-      <c r="F19" t="s">
-        <v>2258</v>
-      </c>
-      <c r="G19" t="s">
-        <v>2021</v>
-      </c>
-      <c r="H19" t="s">
-        <v>2259</v>
-      </c>
-      <c r="I19" t="s">
-        <v>2021</v>
-      </c>
-      <c r="J19" t="s">
-        <v>2021</v>
-      </c>
-      <c r="K19" t="s">
-        <v>2021</v>
-      </c>
-      <c r="L19" t="s">
-        <v>2021</v>
-      </c>
-      <c r="M19" t="s">
-        <v>2260</v>
-      </c>
-      <c r="N19" t="s">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>1294</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2261</v>
-      </c>
-      <c r="C20" t="s">
-        <v>2262</v>
-      </c>
-      <c r="D20" t="s">
-        <v>2044</v>
-      </c>
-      <c r="E20" t="s">
-        <v>2263</v>
-      </c>
-      <c r="F20" t="s">
-        <v>2264</v>
-      </c>
-      <c r="G20" t="s">
-        <v>2265</v>
-      </c>
-      <c r="H20" t="s">
-        <v>2266</v>
-      </c>
-      <c r="I20" t="s">
-        <v>2267</v>
-      </c>
-      <c r="J20" t="s">
-        <v>2044</v>
-      </c>
-      <c r="K20" t="s">
-        <v>2044</v>
-      </c>
-      <c r="L20" t="s">
-        <v>2044</v>
-      </c>
-      <c r="M20" t="s">
-        <v>2268</v>
-      </c>
-      <c r="N20" t="s">
-        <v>2269</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>501</v>
-      </c>
-      <c r="B21" t="s">
-        <v>2270</v>
-      </c>
-      <c r="C21" t="s">
-        <v>2271</v>
-      </c>
-      <c r="D21" t="s">
-        <v>2021</v>
-      </c>
-      <c r="E21" t="s">
-        <v>2272</v>
-      </c>
-      <c r="F21" t="s">
-        <v>2273</v>
-      </c>
-      <c r="G21" t="s">
-        <v>2274</v>
-      </c>
-      <c r="H21" t="s">
-        <v>2275</v>
-      </c>
-      <c r="I21" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J21" t="s">
-        <v>2021</v>
-      </c>
-      <c r="K21" t="s">
-        <v>2021</v>
-      </c>
-      <c r="L21" t="s">
-        <v>2021</v>
-      </c>
-      <c r="M21" t="s">
-        <v>2276</v>
-      </c>
-      <c r="N21" t="s">
-        <v>2277</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>730</v>
-      </c>
-      <c r="B22" t="s">
-        <v>2278</v>
-      </c>
-      <c r="C22" t="s">
-        <v>2013</v>
-      </c>
-      <c r="D22" t="s">
-        <v>2014</v>
-      </c>
-      <c r="E22" t="s">
-        <v>2015</v>
-      </c>
-      <c r="F22" t="s">
-        <v>2016</v>
-      </c>
-      <c r="G22" t="s">
-        <v>2017</v>
-      </c>
-      <c r="H22" t="s">
-        <v>2018</v>
-      </c>
-      <c r="I22" t="s">
-        <v>2019</v>
-      </c>
-      <c r="J22" t="s">
-        <v>2020</v>
-      </c>
-      <c r="K22" t="s">
-        <v>2021</v>
-      </c>
-      <c r="L22" t="s">
-        <v>2021</v>
-      </c>
-      <c r="M22" t="s">
-        <v>2279</v>
-      </c>
-      <c r="N22" t="s">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B23" t="s">
-        <v>2280</v>
-      </c>
-      <c r="C23" t="s">
-        <v>2025</v>
-      </c>
-      <c r="D23" t="s">
-        <v>2026</v>
-      </c>
-      <c r="E23" t="s">
-        <v>2027</v>
-      </c>
-      <c r="F23" t="s">
-        <v>2028</v>
-      </c>
-      <c r="G23" t="s">
-        <v>2029</v>
-      </c>
-      <c r="H23" t="s">
-        <v>2030</v>
-      </c>
-      <c r="I23" t="s">
-        <v>2031</v>
-      </c>
-      <c r="J23" t="s">
-        <v>2032</v>
-      </c>
-      <c r="K23" t="s">
-        <v>1997</v>
-      </c>
-      <c r="L23" t="s">
-        <v>1998</v>
-      </c>
-      <c r="M23" t="s">
-        <v>2281</v>
-      </c>
-      <c r="N23" t="s">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>1255</v>
+        <v>2041</v>
       </c>
     </row>
   </sheetData>
@@ -32057,7 +32248,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3200-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/Resources/CAL_FireStats/2008-wildfire-activity-stats.xlsx
+++ b/Resources/CAL_FireStats/2008-wildfire-activity-stats.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/16c6a743d20dd4b9/Documents/^M PERSONLIG/^M MAAL/DABC/Working/Projects/Project3/Fire-Analysis/Resources/CAL_FireStats/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/16c6a743d20dd4b9/Documents/^M PERSONLIG/^M MAAL/DABC/Working/Projects/Project3/Fire-Analysis/Resources/UniformXLSXs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="261" documentId="11_322FEBFA675BCE483F4C7FB221F65502CCEF4F36" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{567DAC55-A979-47CC-8531-33839FF05AAF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A752AF3-C7B3-4FB2-8445-57204BD6FDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1545" yWindow="825" windowWidth="27255" windowHeight="14760" firstSheet="43" activeTab="46" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
